--- a/Data-Dictionary.xlsx
+++ b/Data-Dictionary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahmirza/Documents/GitHub/LA-Crime-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6411A7-056A-D940-A302-9F092BA4F06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3A632-83DF-CC44-9BA3-C819A9919652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="660" windowWidth="17400" windowHeight="15820" xr2:uid="{D996F092-423F-144F-B95E-D8642339B2E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
